--- a/leagueStats/leagueStats_base_XGB_full.xlsx
+++ b/leagueStats/leagueStats_base_XGB_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O130"/>
+  <dimension ref="A1:O139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7084,6 +7084,465 @@
         <v>2</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H132" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O139" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leagueStats/leagueStats_base_XGB_full.xlsx
+++ b/leagueStats/leagueStats_base_XGB_full.xlsx
@@ -532,10 +532,10 @@
         <v>0.34</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="I2" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -583,28 +583,28 @@
         <v>2.01</v>
       </c>
       <c r="H3" t="n">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="M3" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="N3" t="n">
-        <v>1.24</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -634,10 +634,10 @@
         <v>0.99</v>
       </c>
       <c r="H4" t="n">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="I4" t="n">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
       <c r="M4" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -685,10 +685,10 @@
         <v>0.75</v>
       </c>
       <c r="H5" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="I5" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -697,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="M5" t="n">
         <v>0.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="O5" t="n">
         <v>2</v>
@@ -736,10 +736,10 @@
         <v>0.99</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.16</v>
       </c>
       <c r="I6" t="n">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.66</v>
+        <v>0.18</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0.72</v>
+        <v>0.18</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -787,28 +787,28 @@
         <v>0.96</v>
       </c>
       <c r="H7" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="I7" t="n">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="M7" t="n">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -838,28 +838,28 @@
         <v>0.97</v>
       </c>
       <c r="H8" t="n">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="I8" t="n">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M8" t="n">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="N8" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -889,10 +889,10 @@
         <v>0.62</v>
       </c>
       <c r="H9" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="I9" t="n">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="M9" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.58</v>
+        <v>0.35</v>
       </c>
       <c r="O9" t="n">
         <v>3</v>
@@ -940,10 +940,10 @@
         <v>0.17</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="I10" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.53</v>
+        <v>0.25</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="N10" t="n">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
       <c r="O10" t="n">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>1.76</v>
       </c>
       <c r="H11" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="I11" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="M11" t="n">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
       <c r="N11" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="O11" t="n">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>0.27</v>
       </c>
       <c r="H12" t="n">
-        <v>2.57</v>
+        <v>2.14</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -1093,10 +1093,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="I13" t="n">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="N13" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
@@ -1144,10 +1144,10 @@
         <v>1.96</v>
       </c>
       <c r="H14" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.48</v>
+        <v>2.03</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M14" t="n">
-        <v>0.48</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N14" t="n">
-        <v>0.68</v>
+        <v>0.46</v>
       </c>
       <c r="O14" t="n">
         <v>2</v>
@@ -1195,10 +1195,10 @@
         <v>1.36</v>
       </c>
       <c r="H15" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="I15" t="n">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1207,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="M15" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="O15" t="n">
         <v>3</v>
@@ -1246,10 +1246,10 @@
         <v>0.63</v>
       </c>
       <c r="H16" t="n">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1258,13 +1258,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="M16" t="n">
         <v>0.06</v>
       </c>
       <c r="N16" t="n">
-        <v>0.62</v>
+        <v>0.27</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1297,25 +1297,25 @@
         <v>0.64</v>
       </c>
       <c r="H17" t="n">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="I17" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.41</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.04</v>
-      </c>
       <c r="M17" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.27</v>
+        <v>0.71</v>
       </c>
       <c r="O17" t="n">
         <v>2</v>
@@ -1348,10 +1348,10 @@
         <v>2.94</v>
       </c>
       <c r="H18" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1360,13 +1360,13 @@
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06</v>
+        <v>0.36</v>
       </c>
       <c r="N18" t="n">
-        <v>0.32</v>
+        <v>0.55</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
@@ -1399,28 +1399,28 @@
         <v>3.26</v>
       </c>
       <c r="H19" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="I19" t="n">
-        <v>3.44</v>
+        <v>3.52</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="M19" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="N19" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1450,28 +1450,28 @@
         <v>1.53</v>
       </c>
       <c r="H20" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
       <c r="I20" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1501,10 +1501,10 @@
         <v>1.23</v>
       </c>
       <c r="H21" t="n">
-        <v>0.89</v>
+        <v>0.61</v>
       </c>
       <c r="I21" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1513,13 +1513,13 @@
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="N21" t="n">
-        <v>0.39</v>
+        <v>0.21</v>
       </c>
       <c r="O21" t="n">
         <v>2</v>
@@ -1552,10 +1552,10 @@
         <v>1.37</v>
       </c>
       <c r="H22" t="n">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="I22" t="n">
-        <v>0.63</v>
+        <v>1.17</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1564,13 +1564,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="M22" t="n">
-        <v>0.74</v>
+        <v>0.2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
       <c r="O22" t="n">
         <v>3</v>
@@ -1603,10 +1603,10 @@
         <v>1.1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="I23" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="N23" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0.97</v>
       </c>
       <c r="H24" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="I24" t="n">
-        <v>1.01</v>
+        <v>0.78</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1666,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0.47</v>
+        <v>0.17</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="N24" t="n">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1705,28 +1705,28 @@
         <v>1.29</v>
       </c>
       <c r="H25" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="I25" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="N25" t="n">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1756,28 +1756,28 @@
         <v>1.88</v>
       </c>
       <c r="H26" t="n">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="I26" t="n">
-        <v>2.7</v>
+        <v>2.04</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="M26" t="n">
-        <v>0.82</v>
+        <v>0.16</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1807,10 +1807,10 @@
         <v>1.76</v>
       </c>
       <c r="H27" t="n">
-        <v>2.05</v>
+        <v>2.43</v>
       </c>
       <c r="I27" t="n">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="M27" t="n">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="N27" t="n">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
       <c r="O27" t="n">
         <v>2</v>
@@ -1858,28 +1858,28 @@
         <v>0.3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.05</v>
+        <v>2.61</v>
       </c>
       <c r="I28" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.95</v>
+        <v>0.51</v>
       </c>
       <c r="M28" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="N28" t="n">
-        <v>1.07</v>
+        <v>0.54</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1909,10 +1909,10 @@
         <v>1.54</v>
       </c>
       <c r="H29" t="n">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="I29" t="n">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1921,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="M29" t="n">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="N29" t="n">
-        <v>0.09</v>
+        <v>0.53</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -1960,10 +1960,10 @@
         <v>0.33</v>
       </c>
       <c r="H30" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1972,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="M30" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="N30" t="n">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>1.68</v>
       </c>
       <c r="H31" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="I31" t="n">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="M31" t="n">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="O31" t="n">
         <v>2</v>
@@ -2062,10 +2062,10 @@
         <v>1.2</v>
       </c>
       <c r="H32" t="n">
-        <v>1.22</v>
+        <v>0.99</v>
       </c>
       <c r="I32" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2074,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="M32" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="N32" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="O32" t="n">
         <v>4</v>
@@ -2113,10 +2113,10 @@
         <v>0.89</v>
       </c>
       <c r="H33" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>0.99</v>
+        <v>1.2</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="N33" t="n">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2164,10 +2164,10 @@
         <v>0.25</v>
       </c>
       <c r="H34" t="n">
-        <v>2.34</v>
+        <v>2.51</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="J34" t="n">
         <v>2</v>
@@ -2176,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="M34" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="N34" t="n">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="O34" t="n">
         <v>2</v>
@@ -2215,28 +2215,28 @@
         <v>2.06</v>
       </c>
       <c r="H35" t="n">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
       <c r="I35" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>0.37</v>
+        <v>0.01</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="N35" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2266,28 +2266,28 @@
         <v>1.93</v>
       </c>
       <c r="H36" t="n">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="I36" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.47</v>
+        <v>0.13</v>
       </c>
       <c r="M36" t="n">
-        <v>0.42</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N36" t="n">
-        <v>0.88</v>
+        <v>0.2</v>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2317,10 +2317,10 @@
         <v>2.22</v>
       </c>
       <c r="H37" t="n">
-        <v>1.74</v>
+        <v>1.37</v>
       </c>
       <c r="I37" t="n">
-        <v>2.48</v>
+        <v>2.04</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>0.49</v>
+        <v>0.12</v>
       </c>
       <c r="M37" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="N37" t="n">
-        <v>0.74</v>
+        <v>0.31</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
@@ -2368,7 +2368,7 @@
         <v>1.66</v>
       </c>
       <c r="H38" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="I38" t="n">
         <v>2.06</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="M38" t="n">
         <v>0.4</v>
       </c>
       <c r="N38" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="O38" t="n">
         <v>2</v>
@@ -2419,10 +2419,10 @@
         <v>1.6</v>
       </c>
       <c r="H39" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="I39" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2431,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M39" t="n">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
       <c r="N39" t="n">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2470,10 +2470,10 @@
         <v>0.83</v>
       </c>
       <c r="H40" t="n">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="I40" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="M40" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="N40" t="n">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="O40" t="n">
         <v>3</v>
@@ -2521,28 +2521,28 @@
         <v>2.74</v>
       </c>
       <c r="H41" t="n">
-        <v>1.12</v>
+        <v>0.86</v>
       </c>
       <c r="I41" t="n">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="M41" t="n">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="N41" t="n">
-        <v>0.78</v>
+        <v>0.55</v>
       </c>
       <c r="O41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2572,28 +2572,28 @@
         <v>0.85</v>
       </c>
       <c r="H42" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.99</v>
+        <v>0.71</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="M42" t="n">
         <v>0.14</v>
       </c>
       <c r="N42" t="n">
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2623,10 +2623,10 @@
         <v>2.29</v>
       </c>
       <c r="H43" t="n">
-        <v>0.58</v>
+        <v>0.45</v>
       </c>
       <c r="I43" t="n">
-        <v>2.69</v>
+        <v>2.26</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2635,13 +2635,13 @@
         <v>1</v>
       </c>
       <c r="L43" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N43" t="n">
         <v>0.08</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.49</v>
       </c>
       <c r="O43" t="n">
         <v>4</v>
@@ -2674,10 +2674,10 @@
         <v>0.31</v>
       </c>
       <c r="H44" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2686,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="N44" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>2.11</v>
       </c>
       <c r="H45" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="I45" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2737,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="M45" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="N45" t="n">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="O45" t="n">
         <v>4</v>
@@ -2776,10 +2776,10 @@
         <v>0.5</v>
       </c>
       <c r="H46" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="I46" t="n">
-        <v>1.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2788,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M46" t="n">
-        <v>0.6</v>
+        <v>0.31</v>
       </c>
       <c r="N46" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="O46" t="n">
         <v>1</v>
@@ -2827,10 +2827,10 @@
         <v>1.05</v>
       </c>
       <c r="H47" t="n">
-        <v>2.88</v>
+        <v>3.14</v>
       </c>
       <c r="I47" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="J47" t="n">
         <v>2</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="M47" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="N47" t="n">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="O47" t="n">
         <v>1</v>
@@ -2878,10 +2878,10 @@
         <v>1.7</v>
       </c>
       <c r="H48" t="n">
-        <v>0.93</v>
+        <v>1.26</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.2</v>
+        <v>0.53</v>
       </c>
       <c r="M48" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N48" t="n">
         <v>0.76</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.96</v>
       </c>
       <c r="O48" t="n">
         <v>3</v>
@@ -2929,10 +2929,10 @@
         <v>0.76</v>
       </c>
       <c r="H49" t="n">
-        <v>0.61</v>
+        <v>0.42</v>
       </c>
       <c r="I49" t="n">
-        <v>1.34</v>
+        <v>1.02</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2941,13 +2941,13 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="M49" t="n">
-        <v>0.58</v>
+        <v>0.26</v>
       </c>
       <c r="N49" t="n">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="O49" t="n">
         <v>3</v>
@@ -2980,10 +2980,10 @@
         <v>0.73</v>
       </c>
       <c r="H50" t="n">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="I50" t="n">
-        <v>1.03</v>
+        <v>0.68</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.91</v>
+        <v>0.51</v>
       </c>
       <c r="M50" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="N50" t="n">
-        <v>1.21</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O50" t="n">
         <v>2</v>
@@ -3031,10 +3031,10 @@
         <v>1.07</v>
       </c>
       <c r="H51" t="n">
-        <v>1.06</v>
+        <v>1.57</v>
       </c>
       <c r="I51" t="n">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.53</v>
+        <v>0.02</v>
       </c>
       <c r="M51" t="n">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="N51" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="O51" t="n">
         <v>4</v>
@@ -3082,28 +3082,28 @@
         <v>0.49</v>
       </c>
       <c r="H52" t="n">
-        <v>2.31</v>
+        <v>1.75</v>
       </c>
       <c r="I52" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.6</v>
+        <v>0.04</v>
       </c>
       <c r="M52" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="N52" t="n">
-        <v>0.75</v>
+        <v>0.17</v>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -3133,10 +3133,10 @@
         <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I53" t="n">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3145,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N53" t="n">
         <v>0.16</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.39</v>
       </c>
       <c r="O53" t="n">
         <v>2</v>
@@ -3184,10 +3184,10 @@
         <v>2.6</v>
       </c>
       <c r="H54" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="M54" t="n">
-        <v>0.6</v>
+        <v>0.31</v>
       </c>
       <c r="N54" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="O54" t="n">
         <v>2</v>
@@ -3235,10 +3235,10 @@
         <v>2.22</v>
       </c>
       <c r="H55" t="n">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="I55" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="M55" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="N55" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="O55" t="n">
         <v>5</v>
@@ -3286,7 +3286,7 @@
         <v>1.14</v>
       </c>
       <c r="H56" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="I56" t="n">
         <v>1.25</v>
@@ -3298,13 +3298,13 @@
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="M56" t="n">
         <v>0.11</v>
       </c>
       <c r="N56" t="n">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="O56" t="n">
         <v>3</v>
@@ -3337,10 +3337,10 @@
         <v>0.68</v>
       </c>
       <c r="H57" t="n">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="I57" t="n">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3349,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="M57" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="N57" t="n">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>0.3</v>
       </c>
       <c r="H58" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="I58" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3400,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="M58" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="N58" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="O58" t="n">
         <v>2</v>
@@ -3439,10 +3439,10 @@
         <v>1.8</v>
       </c>
       <c r="H59" t="n">
-        <v>2.11</v>
+        <v>1.71</v>
       </c>
       <c r="I59" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3451,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.43</v>
+        <v>0.03</v>
       </c>
       <c r="M59" t="n">
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="N59" t="n">
-        <v>0.76</v>
+        <v>0.1</v>
       </c>
       <c r="O59" t="n">
         <v>3</v>
@@ -3490,28 +3490,28 @@
         <v>2.12</v>
       </c>
       <c r="H60" t="n">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="I60" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="M60" t="n">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="N60" t="n">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="O60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -3541,10 +3541,10 @@
         <v>2.38</v>
       </c>
       <c r="H61" t="n">
-        <v>2.11</v>
+        <v>1.96</v>
       </c>
       <c r="I61" t="n">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="M61" t="n">
-        <v>1.18</v>
+        <v>0.92</v>
       </c>
       <c r="N61" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="O61" t="n">
         <v>4</v>
@@ -3592,10 +3592,10 @@
         <v>0.9</v>
       </c>
       <c r="H62" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="I62" t="n">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3604,13 +3604,13 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="M62" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="N62" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="O62" t="n">
         <v>3</v>
@@ -3643,10 +3643,10 @@
         <v>0.37</v>
       </c>
       <c r="H63" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="I63" t="n">
-        <v>0.65</v>
+        <v>0.47</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3658,10 +3658,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="M63" t="n">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="N63" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="O63" t="n">
         <v>3</v>
@@ -3694,10 +3694,10 @@
         <v>0.73</v>
       </c>
       <c r="H64" t="n">
-        <v>4.71</v>
+        <v>4.1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1.04</v>
+        <v>0.43</v>
       </c>
       <c r="M64" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="N64" t="n">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="O64" t="n">
         <v>5</v>
@@ -3745,28 +3745,28 @@
         <v>1.61</v>
       </c>
       <c r="H65" t="n">
-        <v>2.66</v>
+        <v>2.71</v>
       </c>
       <c r="I65" t="n">
-        <v>0.58</v>
+        <v>1.06</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>0.55</v>
       </c>
       <c r="N65" t="n">
-        <v>1.2</v>
+        <v>0.77</v>
       </c>
       <c r="O65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -3796,10 +3796,10 @@
         <v>0.51</v>
       </c>
       <c r="H66" t="n">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="I66" t="n">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3808,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="M66" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="N66" t="n">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="O66" t="n">
         <v>1</v>
@@ -3847,28 +3847,28 @@
         <v>0.77</v>
       </c>
       <c r="H67" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="I67" t="n">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="M67" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="N67" t="n">
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3898,10 +3898,10 @@
         <v>2.67</v>
       </c>
       <c r="H68" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="I68" t="n">
-        <v>2.34</v>
+        <v>2.85</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -3910,13 +3910,13 @@
         <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="M68" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="N68" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="O68" t="n">
         <v>2</v>
@@ -3949,10 +3949,10 @@
         <v>1.12</v>
       </c>
       <c r="H69" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="I69" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -3961,13 +3961,13 @@
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="M69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="N69" t="n">
-        <v>0.79</v>
+        <v>0.49</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4000,28 +4000,28 @@
         <v>0.55</v>
       </c>
       <c r="H70" t="n">
-        <v>2.64</v>
+        <v>2.23</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="M70" t="n">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
       <c r="N70" t="n">
-        <v>0.65</v>
+        <v>0.26</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -4051,28 +4051,28 @@
         <v>1.07</v>
       </c>
       <c r="H71" t="n">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
       <c r="I71" t="n">
-        <v>1.52</v>
+        <v>1.17</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.35</v>
+        <v>0.52</v>
       </c>
       <c r="M71" t="n">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="N71" t="n">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4102,10 +4102,10 @@
         <v>0.48</v>
       </c>
       <c r="H72" t="n">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -4114,13 +4114,13 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="M72" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N72" t="n">
         <v>0.22</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.48</v>
       </c>
       <c r="O72" t="n">
         <v>2</v>
@@ -4153,10 +4153,10 @@
         <v>0.67</v>
       </c>
       <c r="H73" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="I73" t="n">
-        <v>1.02</v>
+        <v>0.87</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -4165,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M73" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="N73" t="n">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
       <c r="O73" t="n">
         <v>4</v>
@@ -4204,10 +4204,10 @@
         <v>0.05</v>
       </c>
       <c r="H74" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="I74" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -4216,13 +4216,13 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="M74" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="N74" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="O74" t="n">
         <v>1</v>
@@ -4255,10 +4255,10 @@
         <v>0.44</v>
       </c>
       <c r="H75" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="I75" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4267,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="M75" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="N75" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         <v>1.44</v>
       </c>
       <c r="H76" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="I76" t="n">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -4318,13 +4318,13 @@
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
       <c r="M76" t="n">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="N76" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="O76" t="n">
         <v>4</v>
@@ -4357,10 +4357,10 @@
         <v>1.41</v>
       </c>
       <c r="H77" t="n">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
       <c r="I77" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -4369,13 +4369,13 @@
         <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="M77" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="N77" t="n">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4408,28 +4408,28 @@
         <v>2.26</v>
       </c>
       <c r="H78" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="I78" t="n">
-        <v>3.24</v>
+        <v>2.73</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M78" t="n">
-        <v>0.98</v>
+        <v>0.47</v>
       </c>
       <c r="N78" t="n">
-        <v>1.03</v>
+        <v>0.54</v>
       </c>
       <c r="O78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -4459,10 +4459,10 @@
         <v>0.97</v>
       </c>
       <c r="H79" t="n">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="I79" t="n">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -4471,13 +4471,13 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="M79" t="n">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="N79" t="n">
-        <v>0.44</v>
+        <v>1.01</v>
       </c>
       <c r="O79" t="n">
         <v>1</v>
@@ -4510,10 +4510,10 @@
         <v>1.4</v>
       </c>
       <c r="H80" t="n">
-        <v>0.82</v>
+        <v>0.62</v>
       </c>
       <c r="I80" t="n">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -4522,13 +4522,13 @@
         <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="M80" t="n">
-        <v>0.08</v>
+        <v>0.38</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O80" t="n">
         <v>1</v>
@@ -4561,10 +4561,10 @@
         <v>1.39</v>
       </c>
       <c r="H81" t="n">
-        <v>1.15</v>
+        <v>0.92</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -4573,13 +4573,13 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="M81" t="n">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="N81" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="O81" t="n">
         <v>3</v>
@@ -4612,10 +4612,10 @@
         <v>1.48</v>
       </c>
       <c r="H82" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="I82" t="n">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -4624,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="M82" t="n">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="N82" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="O82" t="n">
         <v>1</v>
@@ -4663,10 +4663,10 @@
         <v>0.43</v>
       </c>
       <c r="H83" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="I83" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -4675,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="M83" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="N83" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="O83" t="n">
         <v>2</v>
@@ -4714,28 +4714,28 @@
         <v>0.21</v>
       </c>
       <c r="H84" t="n">
-        <v>3.34</v>
+        <v>3.08</v>
       </c>
       <c r="I84" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="N84" t="n">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="O84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -4765,28 +4765,28 @@
         <v>0.7</v>
       </c>
       <c r="H85" t="n">
-        <v>4.21</v>
+        <v>3.46</v>
       </c>
       <c r="I85" t="n">
-        <v>0.93</v>
+        <v>0.61</v>
       </c>
       <c r="J85" t="n">
         <v>2</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>1.16</v>
+        <v>0.41</v>
       </c>
       <c r="M85" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="N85" t="n">
-        <v>1.39</v>
+        <v>0.5</v>
       </c>
       <c r="O85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4816,28 +4816,28 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>4.65</v>
+        <v>4.26</v>
       </c>
       <c r="I86" t="n">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="J86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.91</v>
+        <v>0.52</v>
       </c>
       <c r="M86" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="N86" t="n">
-        <v>1.08</v>
+        <v>0.54</v>
       </c>
       <c r="O86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -4867,10 +4867,10 @@
         <v>2.07</v>
       </c>
       <c r="H87" t="n">
-        <v>4.06</v>
+        <v>4.3</v>
       </c>
       <c r="I87" t="n">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="J87" t="n">
         <v>2</v>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="M87" t="n">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="N87" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="O87" t="n">
         <v>5</v>
@@ -4918,10 +4918,10 @@
         <v>0.28</v>
       </c>
       <c r="H88" t="n">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="I88" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -4930,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.57</v>
+        <v>0.41</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="N88" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="O88" t="n">
         <v>2</v>
@@ -4969,10 +4969,10 @@
         <v>0.45</v>
       </c>
       <c r="H89" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -4981,13 +4981,13 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.44</v>
+        <v>0.14</v>
       </c>
       <c r="M89" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="N89" t="n">
-        <v>0.62</v>
+        <v>0.26</v>
       </c>
       <c r="O89" t="n">
         <v>4</v>
@@ -5020,10 +5020,10 @@
         <v>0.2</v>
       </c>
       <c r="H90" t="n">
-        <v>1.86</v>
+        <v>1.56</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -5032,13 +5032,13 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N90" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="O90" t="n">
         <v>1</v>
@@ -5071,10 +5071,10 @@
         <v>0.87</v>
       </c>
       <c r="H91" t="n">
-        <v>1.01</v>
+        <v>0.76</v>
       </c>
       <c r="I91" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -5083,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="M91" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="N91" t="n">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
       <c r="O91" t="n">
         <v>2</v>
@@ -5122,10 +5122,10 @@
         <v>0.29</v>
       </c>
       <c r="H92" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -5134,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="N92" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="O92" t="n">
         <v>1</v>
@@ -5173,10 +5173,10 @@
         <v>1.13</v>
       </c>
       <c r="H93" t="n">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="I93" t="n">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -5185,13 +5185,13 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="M93" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="N93" t="n">
-        <v>0.45</v>
+        <v>0.28</v>
       </c>
       <c r="O93" t="n">
         <v>2</v>
@@ -5224,10 +5224,10 @@
         <v>0.11</v>
       </c>
       <c r="H94" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="I94" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -5236,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="M94" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="O94" t="n">
         <v>2</v>
@@ -5275,10 +5275,10 @@
         <v>1.12</v>
       </c>
       <c r="H95" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="I95" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -5287,13 +5287,13 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="M95" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="N95" t="n">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O95" t="n">
         <v>3</v>
@@ -5326,10 +5326,10 @@
         <v>1.21</v>
       </c>
       <c r="H96" t="n">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
       <c r="I96" t="n">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5338,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="N96" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="O96" t="n">
         <v>3</v>
@@ -5377,10 +5377,10 @@
         <v>0.89</v>
       </c>
       <c r="H97" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="I97" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="J97" t="n">
         <v>2</v>
@@ -5389,13 +5389,13 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="M97" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="O97" t="n">
         <v>3</v>
@@ -5428,28 +5428,28 @@
         <v>3.2</v>
       </c>
       <c r="H98" t="n">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="I98" t="n">
-        <v>3.24</v>
+        <v>3.06</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>0.29</v>
+        <v>0.41</v>
       </c>
       <c r="M98" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="N98" t="n">
-        <v>0.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -5479,10 +5479,10 @@
         <v>0.47</v>
       </c>
       <c r="H99" t="n">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="I99" t="n">
-        <v>1.03</v>
+        <v>0.72</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -5491,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="M99" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="N99" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="O99" t="n">
         <v>1</v>
@@ -5530,10 +5530,10 @@
         <v>0.21</v>
       </c>
       <c r="H100" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="I100" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -5542,13 +5542,13 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="M100" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="N100" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="O100" t="n">
         <v>1</v>
@@ -5581,28 +5581,28 @@
         <v>0.74</v>
       </c>
       <c r="H101" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="I101" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="N101" t="n">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="O101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -5632,28 +5632,28 @@
         <v>2.54</v>
       </c>
       <c r="H102" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="I102" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="M102" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="N102" t="n">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -5683,10 +5683,10 @@
         <v>1.29</v>
       </c>
       <c r="H103" t="n">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="I103" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -5695,13 +5695,13 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="M103" t="n">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="N103" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="O103" t="n">
         <v>2</v>
@@ -5734,10 +5734,10 @@
         <v>1.8</v>
       </c>
       <c r="H104" t="n">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="I104" t="n">
-        <v>3.43</v>
+        <v>2.51</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -5746,13 +5746,13 @@
         <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="M104" t="n">
-        <v>1.63</v>
+        <v>0.71</v>
       </c>
       <c r="N104" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="O104" t="n">
         <v>3</v>
@@ -5785,10 +5785,10 @@
         <v>1.07</v>
       </c>
       <c r="H105" t="n">
-        <v>2.42</v>
+        <v>2.65</v>
       </c>
       <c r="I105" t="n">
-        <v>0.66</v>
+        <v>0.96</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -5797,13 +5797,13 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="M105" t="n">
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="N105" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="O105" t="n">
         <v>1</v>
@@ -5836,10 +5836,10 @@
         <v>1.19</v>
       </c>
       <c r="H106" t="n">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="I106" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -5848,13 +5848,13 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="M106" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="N106" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="O106" t="n">
         <v>3</v>
@@ -5887,10 +5887,10 @@
         <v>0.6</v>
       </c>
       <c r="H107" t="n">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="I107" t="n">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -5899,13 +5899,13 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="M107" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="N107" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="O107" t="n">
         <v>1</v>
@@ -5938,10 +5938,10 @@
         <v>0.4</v>
       </c>
       <c r="H108" t="n">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
       <c r="I108" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -5950,13 +5950,13 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="M108" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="N108" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="O108" t="n">
         <v>1</v>
@@ -5989,28 +5989,28 @@
         <v>0.26</v>
       </c>
       <c r="H109" t="n">
-        <v>3.75</v>
+        <v>3.36</v>
       </c>
       <c r="I109" t="n">
         <v>0.25</v>
       </c>
       <c r="J109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.79</v>
+        <v>0.4</v>
       </c>
       <c r="M109" t="n">
         <v>0.01</v>
       </c>
       <c r="N109" t="n">
-        <v>0.8</v>
+        <v>0.41</v>
       </c>
       <c r="O109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -6040,10 +6040,10 @@
         <v>1.45</v>
       </c>
       <c r="H110" t="n">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -6052,13 +6052,13 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="M110" t="n">
-        <v>0.55</v>
+        <v>0.36</v>
       </c>
       <c r="N110" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="O110" t="n">
         <v>1</v>
@@ -6091,7 +6091,7 @@
         <v>1.39</v>
       </c>
       <c r="H111" t="n">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="I111" t="n">
         <v>1.57</v>
@@ -6103,13 +6103,13 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
       <c r="M111" t="n">
         <v>0.18</v>
       </c>
       <c r="N111" t="n">
-        <v>0.77</v>
+        <v>0.59</v>
       </c>
       <c r="O111" t="n">
         <v>2</v>
@@ -6142,10 +6142,10 @@
         <v>0.59</v>
       </c>
       <c r="H112" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="I112" t="n">
-        <v>1.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -6154,13 +6154,13 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="M112" t="n">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="N112" t="n">
-        <v>1.21</v>
+        <v>0.66</v>
       </c>
       <c r="O112" t="n">
         <v>2</v>
@@ -6193,10 +6193,10 @@
         <v>3.38</v>
       </c>
       <c r="H113" t="n">
-        <v>1.88</v>
+        <v>1.21</v>
       </c>
       <c r="I113" t="n">
-        <v>1.95</v>
+        <v>2.27</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -6205,13 +6205,13 @@
         <v>1</v>
       </c>
       <c r="L113" t="n">
-        <v>0.18</v>
+        <v>0.49</v>
       </c>
       <c r="M113" t="n">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="N113" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O113" t="n">
         <v>5</v>
@@ -6244,10 +6244,10 @@
         <v>0.42</v>
       </c>
       <c r="H114" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="I114" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -6256,13 +6256,13 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>0.38</v>
+        <v>0.64</v>
       </c>
       <c r="M114" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="N114" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O114" t="n">
         <v>2</v>
@@ -6295,10 +6295,10 @@
         <v>1.02</v>
       </c>
       <c r="H115" t="n">
-        <v>0.79</v>
+        <v>1.18</v>
       </c>
       <c r="I115" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -6307,13 +6307,13 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>0.01</v>
+        <v>0.38</v>
       </c>
       <c r="M115" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="N115" t="n">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="O115" t="n">
         <v>3</v>
@@ -6346,10 +6346,10 @@
         <v>0.84</v>
       </c>
       <c r="H116" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="I116" t="n">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -6358,13 +6358,13 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="M116" t="n">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="N116" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="O116" t="n">
         <v>3</v>
@@ -6397,28 +6397,28 @@
         <v>0.44</v>
       </c>
       <c r="H117" t="n">
-        <v>2.77</v>
+        <v>1.82</v>
       </c>
       <c r="I117" t="n">
-        <v>0.65</v>
+        <v>0.58</v>
       </c>
       <c r="J117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>0.83</v>
+        <v>0.12</v>
       </c>
       <c r="M117" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="N117" t="n">
-        <v>1.04</v>
+        <v>0.26</v>
       </c>
       <c r="O117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
@@ -6451,25 +6451,25 @@
         <v>1.74</v>
       </c>
       <c r="I118" t="n">
-        <v>0.67</v>
+        <v>1.07</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" t="n">
         <v>0.19</v>
       </c>
       <c r="M118" t="n">
-        <v>0.02</v>
+        <v>0.38</v>
       </c>
       <c r="N118" t="n">
-        <v>0.21</v>
+        <v>0.57</v>
       </c>
       <c r="O118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -6499,10 +6499,10 @@
         <v>1.61</v>
       </c>
       <c r="H119" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="I119" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="M119" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="N119" t="n">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="O119" t="n">
         <v>1</v>
@@ -6550,10 +6550,10 @@
         <v>1.68</v>
       </c>
       <c r="H120" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="I120" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -6562,13 +6562,13 @@
         <v>1</v>
       </c>
       <c r="L120" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="M120" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="N120" t="n">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="O120" t="n">
         <v>4</v>
@@ -6601,10 +6601,10 @@
         <v>3.23</v>
       </c>
       <c r="H121" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I121" t="n">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -6613,13 +6613,13 @@
         <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="N121" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="O121" t="n">
         <v>5</v>
@@ -6652,10 +6652,10 @@
         <v>0.4</v>
       </c>
       <c r="H122" t="n">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="I122" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -6664,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -6703,10 +6703,10 @@
         <v>2.75</v>
       </c>
       <c r="H123" t="n">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="I123" t="n">
-        <v>2.09</v>
+        <v>2.83</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -6715,13 +6715,13 @@
         <v>1</v>
       </c>
       <c r="L123" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N123" t="n">
         <v>0.21</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0.87</v>
       </c>
       <c r="O123" t="n">
         <v>3</v>
@@ -6754,10 +6754,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="I124" t="n">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -6766,13 +6766,13 @@
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="M124" t="n">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="N124" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O124" t="n">
         <v>2</v>
@@ -6805,10 +6805,10 @@
         <v>3.01</v>
       </c>
       <c r="H125" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="I125" t="n">
-        <v>3.12</v>
+        <v>2.91</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -6817,13 +6817,13 @@
         <v>2</v>
       </c>
       <c r="L125" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="M125" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="N125" t="n">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="O125" t="n">
         <v>2</v>
@@ -6856,28 +6856,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H126" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="I126" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="J126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N126" t="n">
-        <v>0.37</v>
+        <v>0.23</v>
       </c>
       <c r="O126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -6907,10 +6907,10 @@
         <v>0.58</v>
       </c>
       <c r="H127" t="n">
-        <v>2.19</v>
+        <v>1.76</v>
       </c>
       <c r="I127" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -6919,13 +6919,13 @@
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="N127" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -6958,10 +6958,10 @@
         <v>0.88</v>
       </c>
       <c r="H128" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="I128" t="n">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -6970,13 +6970,13 @@
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
       <c r="M128" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="N128" t="n">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="O128" t="n">
         <v>2</v>
@@ -7009,10 +7009,10 @@
         <v>0.83</v>
       </c>
       <c r="H129" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I129" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -7021,10 +7021,10 @@
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="M129" t="n">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="N129" t="n">
         <v>0.57</v>
@@ -7060,28 +7060,28 @@
         <v>0.7</v>
       </c>
       <c r="H130" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="I130" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="M130" t="n">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="N130" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="O130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -7111,28 +7111,28 @@
         <v>0.7</v>
       </c>
       <c r="H131" t="n">
-        <v>2.27</v>
+        <v>1.74</v>
       </c>
       <c r="I131" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N131" t="n">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
       <c r="O131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -7162,10 +7162,10 @@
         <v>0.44</v>
       </c>
       <c r="H132" t="n">
-        <v>3.37</v>
+        <v>3.34</v>
       </c>
       <c r="I132" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="J132" t="n">
         <v>2</v>
@@ -7174,13 +7174,13 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="M132" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="N132" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="O132" t="n">
         <v>1</v>
@@ -7213,10 +7213,10 @@
         <v>1.34</v>
       </c>
       <c r="H133" t="n">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="I133" t="n">
-        <v>1.02</v>
+        <v>1.34</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>1</v>
       </c>
       <c r="L133" t="n">
-        <v>0.51</v>
+        <v>0.16</v>
       </c>
       <c r="M133" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>0.82</v>
+        <v>0.17</v>
       </c>
       <c r="O133" t="n">
         <v>1</v>
@@ -7264,10 +7264,10 @@
         <v>0.54</v>
       </c>
       <c r="H134" t="n">
-        <v>2.24</v>
+        <v>2.27</v>
       </c>
       <c r="I134" t="n">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -7276,13 +7276,13 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M134" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N134" t="n">
         <v>0.11</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.16</v>
       </c>
       <c r="O134" t="n">
         <v>3</v>
@@ -7315,28 +7315,28 @@
         <v>1.3</v>
       </c>
       <c r="H135" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="I135" t="n">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="M135" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="N135" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -7366,7 +7366,7 @@
         <v>2.6</v>
       </c>
       <c r="H136" t="n">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
       <c r="I136" t="n">
         <v>2.82</v>
@@ -7378,13 +7378,13 @@
         <v>1</v>
       </c>
       <c r="L136" t="n">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="M136" t="n">
         <v>0.22</v>
       </c>
       <c r="N136" t="n">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="O136" t="n">
         <v>3</v>
@@ -7417,10 +7417,10 @@
         <v>1.41</v>
       </c>
       <c r="H137" t="n">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="I137" t="n">
-        <v>1.74</v>
+        <v>2.17</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -7429,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="M137" t="n">
-        <v>0.33</v>
+        <v>0.76</v>
       </c>
       <c r="N137" t="n">
-        <v>0.49</v>
+        <v>0.77</v>
       </c>
       <c r="O137" t="n">
         <v>1</v>
@@ -7471,7 +7471,7 @@
         <v>0.25</v>
       </c>
       <c r="I138" t="n">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -7483,10 +7483,10 @@
         <v>0.08</v>
       </c>
       <c r="M138" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="O138" t="n">
         <v>1</v>
@@ -7519,10 +7519,10 @@
         <v>1.3</v>
       </c>
       <c r="H139" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="I139" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -7531,13 +7531,13 @@
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M139" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="N139" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="O139" t="n">
         <v>2</v>

--- a/leagueStats/leagueStats_base_XGB_full.xlsx
+++ b/leagueStats/leagueStats_base_XGB_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O139"/>
+  <dimension ref="A1:O149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7543,6 +7543,516 @@
         <v>2</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>3</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O149" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leagueStats/leagueStats_base_XGB_full.xlsx
+++ b/leagueStats/leagueStats_base_XGB_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O149"/>
+  <dimension ref="A1:O169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
         <v>0.61</v>
       </c>
       <c r="I2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0.14</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="N2" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -583,28 +583,28 @@
         <v>2.01</v>
       </c>
       <c r="H3" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="M3" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -634,10 +634,10 @@
         <v>0.99</v>
       </c>
       <c r="H4" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I4" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="N4" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -685,10 +685,10 @@
         <v>0.75</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="I5" t="n">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -697,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="O5" t="n">
         <v>2</v>
@@ -736,10 +736,10 @@
         <v>0.99</v>
       </c>
       <c r="H6" t="n">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="N6" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0.96</v>
       </c>
       <c r="H7" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="I7" t="n">
         <v>1.39</v>
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="M7" t="n">
         <v>0.43</v>
       </c>
       <c r="N7" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0.97</v>
       </c>
       <c r="H8" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I8" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -850,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="M8" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="N8" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="O8" t="n">
         <v>2</v>
@@ -889,10 +889,10 @@
         <v>0.62</v>
       </c>
       <c r="H9" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="I9" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="N9" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="O9" t="n">
         <v>3</v>
@@ -940,10 +940,10 @@
         <v>0.17</v>
       </c>
       <c r="H10" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="I10" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="O10" t="n">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>1.76</v>
       </c>
       <c r="H11" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="I11" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="M11" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="N11" t="n">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="O11" t="n">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>0.27</v>
       </c>
       <c r="H12" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="N12" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -1093,10 +1093,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="I13" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="M13" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="N13" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
@@ -1144,10 +1144,10 @@
         <v>1.96</v>
       </c>
       <c r="H14" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="N14" t="n">
         <v>0.46</v>
@@ -1198,7 +1198,7 @@
         <v>0.73</v>
       </c>
       <c r="I15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>0.12</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="O15" t="n">
         <v>3</v>
@@ -1246,10 +1246,10 @@
         <v>0.63</v>
       </c>
       <c r="H16" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="I16" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1258,13 +1258,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="N16" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0.64</v>
       </c>
       <c r="H17" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="I17" t="n">
         <v>0.34</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="M17" t="n">
         <v>0.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="O17" t="n">
         <v>2</v>
@@ -1348,10 +1348,10 @@
         <v>2.94</v>
       </c>
       <c r="H18" t="n">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="I18" t="n">
-        <v>2.58</v>
+        <v>2.45</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1360,13 +1360,13 @@
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="M18" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="N18" t="n">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
@@ -1402,7 +1402,7 @@
         <v>1.46</v>
       </c>
       <c r="I19" t="n">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>1.14</v>
       </c>
       <c r="M19" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="O19" t="n">
         <v>2</v>
@@ -1450,28 +1450,28 @@
         <v>1.53</v>
       </c>
       <c r="H20" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="I20" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1501,10 +1501,10 @@
         <v>1.23</v>
       </c>
       <c r="H21" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="I21" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1513,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="M21" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="N21" t="n">
         <v>0.21</v>
@@ -1552,10 +1552,10 @@
         <v>1.37</v>
       </c>
       <c r="H22" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I22" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1564,13 +1564,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="N22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="O22" t="n">
         <v>3</v>
@@ -1603,10 +1603,10 @@
         <v>1.1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="I23" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="M23" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0.97</v>
       </c>
       <c r="H24" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="I24" t="n">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="M24" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="N24" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1705,10 +1705,10 @@
         <v>1.29</v>
       </c>
       <c r="H25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I25" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1717,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="M25" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="N25" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
       <c r="O25" t="n">
         <v>3</v>
@@ -1756,10 +1756,10 @@
         <v>1.88</v>
       </c>
       <c r="H26" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="I26" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="M26" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="N26" t="n">
         <v>0.4</v>
@@ -1807,10 +1807,10 @@
         <v>1.76</v>
       </c>
       <c r="H27" t="n">
-        <v>2.43</v>
+        <v>2.57</v>
       </c>
       <c r="I27" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="M27" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="N27" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O27" t="n">
         <v>2</v>
@@ -1858,10 +1858,10 @@
         <v>0.3</v>
       </c>
       <c r="H28" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="I28" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1870,13 +1870,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="O28" t="n">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>1.23</v>
       </c>
       <c r="I29" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0.27</v>
       </c>
       <c r="M29" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="N29" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>0.24</v>
       </c>
       <c r="N30" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>1.68</v>
       </c>
       <c r="H31" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="I31" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N31" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="O31" t="n">
         <v>2</v>
@@ -2062,7 +2062,7 @@
         <v>1.2</v>
       </c>
       <c r="H32" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="I32" t="n">
         <v>1.35</v>
@@ -2074,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="M32" t="n">
         <v>0.15</v>
       </c>
       <c r="N32" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="O32" t="n">
         <v>4</v>
@@ -2116,7 +2116,7 @@
         <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0.02</v>
       </c>
       <c r="M33" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="N33" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>2.51</v>
       </c>
       <c r="I34" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="J34" t="n">
         <v>2</v>
@@ -2179,10 +2179,10 @@
         <v>0.26</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="N34" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="O34" t="n">
         <v>2</v>
@@ -2215,10 +2215,10 @@
         <v>2.06</v>
       </c>
       <c r="H35" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="I35" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="M35" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="N35" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="O35" t="n">
         <v>4</v>
@@ -2266,10 +2266,10 @@
         <v>1.93</v>
       </c>
       <c r="H36" t="n">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="M36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="N36" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="O36" t="n">
         <v>4</v>
@@ -2317,10 +2317,10 @@
         <v>2.22</v>
       </c>
       <c r="H37" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="I37" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="M37" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="N37" t="n">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
@@ -2371,7 +2371,7 @@
         <v>0.25</v>
       </c>
       <c r="I38" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0.01</v>
       </c>
       <c r="M38" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="N38" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="O38" t="n">
         <v>2</v>
@@ -2419,10 +2419,10 @@
         <v>1.6</v>
       </c>
       <c r="H39" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="I39" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2431,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="M39" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="N39" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>1.36</v>
       </c>
       <c r="I40" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0.12</v>
       </c>
       <c r="M40" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="N40" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="O40" t="n">
         <v>3</v>
@@ -2521,10 +2521,10 @@
         <v>2.74</v>
       </c>
       <c r="H41" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="I41" t="n">
-        <v>3.23</v>
+        <v>3.33</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="M41" t="n">
-        <v>0.49</v>
+        <v>0.59</v>
       </c>
       <c r="N41" t="n">
-        <v>0.55</v>
+        <v>0.68</v>
       </c>
       <c r="O41" t="n">
         <v>3</v>
@@ -2572,10 +2572,10 @@
         <v>0.85</v>
       </c>
       <c r="H42" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="I42" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2584,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="M42" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="N42" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="O42" t="n">
         <v>2</v>
@@ -2623,10 +2623,10 @@
         <v>2.29</v>
       </c>
       <c r="H43" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="I43" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2635,13 +2635,13 @@
         <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M43" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="N43" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="O43" t="n">
         <v>4</v>
@@ -2674,10 +2674,10 @@
         <v>0.31</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I44" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2686,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M44" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N44" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>2.11</v>
       </c>
       <c r="H45" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="I45" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2737,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="M45" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="N45" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="O45" t="n">
         <v>4</v>
@@ -2776,10 +2776,10 @@
         <v>0.5</v>
       </c>
       <c r="H46" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2788,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="M46" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.31</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.41</v>
       </c>
       <c r="O46" t="n">
         <v>1</v>
@@ -2827,7 +2827,7 @@
         <v>1.05</v>
       </c>
       <c r="H47" t="n">
-        <v>3.14</v>
+        <v>3.09</v>
       </c>
       <c r="I47" t="n">
         <v>1.22</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="M47" t="n">
         <v>0.17</v>
       </c>
       <c r="N47" t="n">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="O47" t="n">
         <v>1</v>
@@ -2878,10 +2878,10 @@
         <v>1.7</v>
       </c>
       <c r="H48" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="I48" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="M48" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="N48" t="n">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="O48" t="n">
         <v>3</v>
@@ -2980,10 +2980,10 @@
         <v>0.73</v>
       </c>
       <c r="H50" t="n">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="I50" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="M50" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="N50" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="O50" t="n">
         <v>2</v>
@@ -3031,10 +3031,10 @@
         <v>1.07</v>
       </c>
       <c r="H51" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="I51" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="M51" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="N51" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="O51" t="n">
         <v>4</v>
@@ -3082,10 +3082,10 @@
         <v>0.49</v>
       </c>
       <c r="H52" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="I52" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3094,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="M52" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="N52" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="O52" t="n">
         <v>3</v>
@@ -3133,10 +3133,10 @@
         <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I53" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3145,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="M53" t="n">
         <v>0.01</v>
       </c>
       <c r="N53" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="O53" t="n">
         <v>2</v>
@@ -3184,10 +3184,10 @@
         <v>2.6</v>
       </c>
       <c r="H54" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="I54" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="M54" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="N54" t="n">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="O54" t="n">
         <v>2</v>
@@ -3235,10 +3235,10 @@
         <v>2.22</v>
       </c>
       <c r="H55" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="I55" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="M55" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="N55" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="O55" t="n">
         <v>5</v>
@@ -3286,10 +3286,10 @@
         <v>1.14</v>
       </c>
       <c r="H56" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3298,13 +3298,13 @@
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="M56" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="N56" t="n">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="O56" t="n">
         <v>3</v>
@@ -3340,7 +3340,7 @@
         <v>0.47</v>
       </c>
       <c r="I57" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3352,10 +3352,10 @@
         <v>0.11</v>
       </c>
       <c r="M57" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="N57" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         <v>0.3</v>
       </c>
       <c r="H58" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="I58" t="n">
         <v>0.15</v>
@@ -3400,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="M58" t="n">
         <v>0.15</v>
       </c>
       <c r="N58" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="O58" t="n">
         <v>2</v>
@@ -3439,10 +3439,10 @@
         <v>1.8</v>
       </c>
       <c r="H59" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="I59" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3451,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="M59" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="N59" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="O59" t="n">
         <v>3</v>
@@ -3490,7 +3490,7 @@
         <v>2.12</v>
       </c>
       <c r="H60" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I60" t="n">
         <v>2.2</v>
@@ -3499,19 +3499,19 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="M60" t="n">
         <v>0.08</v>
       </c>
       <c r="N60" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="O60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -3541,10 +3541,10 @@
         <v>2.38</v>
       </c>
       <c r="H61" t="n">
-        <v>1.96</v>
+        <v>2.01</v>
       </c>
       <c r="I61" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="M61" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="N61" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="O61" t="n">
         <v>4</v>
@@ -3592,10 +3592,10 @@
         <v>0.9</v>
       </c>
       <c r="H62" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="I62" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3604,13 +3604,13 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="M62" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="N62" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O62" t="n">
         <v>3</v>
@@ -3643,10 +3643,10 @@
         <v>0.37</v>
       </c>
       <c r="H63" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="I63" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3655,13 +3655,13 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="M63" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="N63" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="O63" t="n">
         <v>3</v>
@@ -3694,10 +3694,10 @@
         <v>0.73</v>
       </c>
       <c r="H64" t="n">
-        <v>4.1</v>
+        <v>4.14</v>
       </c>
       <c r="I64" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="M64" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="N64" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="O64" t="n">
         <v>5</v>
@@ -3745,10 +3745,10 @@
         <v>1.61</v>
       </c>
       <c r="H65" t="n">
-        <v>2.71</v>
+        <v>2.79</v>
       </c>
       <c r="I65" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3757,13 +3757,13 @@
         <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="M65" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="N65" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="O65" t="n">
         <v>4</v>
@@ -3796,10 +3796,10 @@
         <v>0.51</v>
       </c>
       <c r="H66" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="I66" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3808,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="M66" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="N66" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="O66" t="n">
         <v>1</v>
@@ -3847,10 +3847,10 @@
         <v>0.77</v>
       </c>
       <c r="H67" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="I67" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3859,13 +3859,13 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="M67" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="N67" t="n">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -3898,10 +3898,10 @@
         <v>2.67</v>
       </c>
       <c r="H68" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="I68" t="n">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -3910,13 +3910,13 @@
         <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="M68" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="N68" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O68" t="n">
         <v>2</v>
@@ -3949,10 +3949,10 @@
         <v>1.12</v>
       </c>
       <c r="H69" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -3961,13 +3961,13 @@
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="M69" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4000,10 +4000,10 @@
         <v>0.55</v>
       </c>
       <c r="H70" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="I70" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4012,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="M70" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="N70" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="O70" t="n">
         <v>2</v>
@@ -4051,10 +4051,10 @@
         <v>1.07</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="I71" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -4063,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N71" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="O71" t="n">
         <v>2</v>
@@ -4102,10 +4102,10 @@
         <v>0.48</v>
       </c>
       <c r="H72" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="I72" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -4114,13 +4114,13 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="M72" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="N72" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="O72" t="n">
         <v>2</v>
@@ -4153,10 +4153,10 @@
         <v>0.67</v>
       </c>
       <c r="H73" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="I73" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -4165,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="M73" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="N73" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="O73" t="n">
         <v>4</v>
@@ -4204,10 +4204,10 @@
         <v>0.05</v>
       </c>
       <c r="H74" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="I74" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -4216,13 +4216,13 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="M74" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="N74" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="O74" t="n">
         <v>1</v>
@@ -4255,7 +4255,7 @@
         <v>0.44</v>
       </c>
       <c r="H75" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I75" t="n">
         <v>0.45</v>
@@ -4267,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="M75" t="n">
         <v>0.01</v>
       </c>
       <c r="N75" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         <v>1.44</v>
       </c>
       <c r="H76" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="I76" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -4318,13 +4318,13 @@
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="M76" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="N76" t="n">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="O76" t="n">
         <v>4</v>
@@ -4357,10 +4357,10 @@
         <v>1.41</v>
       </c>
       <c r="H77" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="I77" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -4369,13 +4369,13 @@
         <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="M77" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="N77" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4411,7 +4411,7 @@
         <v>0.3</v>
       </c>
       <c r="I78" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -4423,10 +4423,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="M78" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="N78" t="n">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="O78" t="n">
         <v>5</v>
@@ -4459,7 +4459,7 @@
         <v>0.97</v>
       </c>
       <c r="H79" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="I79" t="n">
         <v>1.32</v>
@@ -4471,13 +4471,13 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="M79" t="n">
         <v>0.35</v>
       </c>
       <c r="N79" t="n">
-        <v>1.01</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O79" t="n">
         <v>1</v>
@@ -4510,10 +4510,10 @@
         <v>1.4</v>
       </c>
       <c r="H80" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="I80" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -4522,13 +4522,13 @@
         <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="M80" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="N80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="O80" t="n">
         <v>1</v>
@@ -4561,10 +4561,10 @@
         <v>1.39</v>
       </c>
       <c r="H81" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I81" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -4576,10 +4576,10 @@
         <v>0.01</v>
       </c>
       <c r="M81" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="N81" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="O81" t="n">
         <v>3</v>
@@ -4612,7 +4612,7 @@
         <v>1.48</v>
       </c>
       <c r="H82" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="I82" t="n">
         <v>1.06</v>
@@ -4624,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="M82" t="n">
         <v>0.42</v>
       </c>
       <c r="N82" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O82" t="n">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>0.43</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="I83" t="n">
         <v>0.32</v>
@@ -4675,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="M83" t="n">
         <v>0.11</v>
       </c>
       <c r="N83" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="O83" t="n">
         <v>2</v>
@@ -4717,7 +4717,7 @@
         <v>3.08</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4729,10 +4729,10 @@
         <v>0.64</v>
       </c>
       <c r="M84" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="N84" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="O84" t="n">
         <v>6</v>
@@ -4765,10 +4765,10 @@
         <v>0.7</v>
       </c>
       <c r="H85" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="I85" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="J85" t="n">
         <v>2</v>
@@ -4777,13 +4777,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="M85" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="N85" t="n">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="O85" t="n">
         <v>1</v>
@@ -4816,10 +4816,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>4.26</v>
+        <v>3.98</v>
       </c>
       <c r="I86" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="J86" t="n">
         <v>3</v>
@@ -4828,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
       <c r="M86" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="N86" t="n">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
       <c r="O86" t="n">
         <v>3</v>
@@ -4867,7 +4867,7 @@
         <v>2.07</v>
       </c>
       <c r="H87" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="I87" t="n">
         <v>1.64</v>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="M87" t="n">
         <v>0.43</v>
       </c>
       <c r="N87" t="n">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="O87" t="n">
         <v>5</v>
@@ -4918,7 +4918,7 @@
         <v>0.28</v>
       </c>
       <c r="H88" t="n">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="I88" t="n">
         <v>0.2</v>
@@ -4930,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="M88" t="n">
         <v>0.08</v>
       </c>
       <c r="N88" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="O88" t="n">
         <v>2</v>
@@ -4969,10 +4969,10 @@
         <v>0.45</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="I89" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -4981,13 +4981,13 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="M89" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="N89" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="O89" t="n">
         <v>4</v>
@@ -5020,7 +5020,7 @@
         <v>0.2</v>
       </c>
       <c r="H90" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="I90" t="n">
         <v>0.25</v>
@@ -5032,13 +5032,13 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="M90" t="n">
         <v>0.05</v>
       </c>
       <c r="N90" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="O90" t="n">
         <v>1</v>
@@ -5071,10 +5071,10 @@
         <v>0.87</v>
       </c>
       <c r="H91" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="I91" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -5083,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M91" t="n">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="N91" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="O91" t="n">
         <v>2</v>
@@ -5122,10 +5122,10 @@
         <v>0.29</v>
       </c>
       <c r="H92" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="I92" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -5134,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="M92" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="N92" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O92" t="n">
         <v>1</v>
@@ -5173,10 +5173,10 @@
         <v>1.13</v>
       </c>
       <c r="H93" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="I93" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -5185,13 +5185,13 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N93" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="O93" t="n">
         <v>2</v>
@@ -5275,25 +5275,25 @@
         <v>1.12</v>
       </c>
       <c r="H95" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M95" t="n">
         <v>0.43</v>
       </c>
-      <c r="I95" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.39</v>
-      </c>
       <c r="N95" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="O95" t="n">
         <v>3</v>
@@ -5326,10 +5326,10 @@
         <v>1.21</v>
       </c>
       <c r="H96" t="n">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="I96" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5338,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="M96" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="N96" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="O96" t="n">
         <v>3</v>
@@ -5377,10 +5377,10 @@
         <v>0.89</v>
       </c>
       <c r="H97" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="I97" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="J97" t="n">
         <v>2</v>
@@ -5389,13 +5389,13 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="M97" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="N97" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="O97" t="n">
         <v>3</v>
@@ -5431,7 +5431,7 @@
         <v>0.66</v>
       </c>
       <c r="I98" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -5443,10 +5443,10 @@
         <v>0.41</v>
       </c>
       <c r="M98" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="N98" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="O98" t="n">
         <v>4</v>
@@ -5479,10 +5479,10 @@
         <v>0.47</v>
       </c>
       <c r="H99" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="I99" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -5491,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="M99" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="N99" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="O99" t="n">
         <v>1</v>
@@ -5530,10 +5530,10 @@
         <v>0.21</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="I100" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -5542,13 +5542,13 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="M100" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="O100" t="n">
         <v>1</v>
@@ -5581,10 +5581,10 @@
         <v>0.74</v>
       </c>
       <c r="H101" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="I101" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -5593,13 +5593,13 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="M101" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="N101" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>2.54</v>
       </c>
       <c r="H102" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="I102" t="n">
         <v>1.95</v>
@@ -5644,13 +5644,13 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="M102" t="n">
         <v>0.59</v>
       </c>
       <c r="N102" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="O102" t="n">
         <v>1</v>
@@ -5683,10 +5683,10 @@
         <v>1.29</v>
       </c>
       <c r="H103" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I103" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -5695,13 +5695,13 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="M103" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="N103" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="O103" t="n">
         <v>2</v>
@@ -5734,10 +5734,10 @@
         <v>1.8</v>
       </c>
       <c r="H104" t="n">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="I104" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -5746,13 +5746,13 @@
         <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="M104" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="N104" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="O104" t="n">
         <v>3</v>
@@ -5785,28 +5785,28 @@
         <v>1.07</v>
       </c>
       <c r="H105" t="n">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="I105" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="M105" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="N105" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="O105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -5836,10 +5836,10 @@
         <v>1.19</v>
       </c>
       <c r="H106" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I106" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -5848,13 +5848,13 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="M106" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="N106" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="O106" t="n">
         <v>3</v>
@@ -5938,10 +5938,10 @@
         <v>0.4</v>
       </c>
       <c r="H108" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="I108" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="M108" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="N108" t="n">
         <v>0.33</v>
@@ -5989,10 +5989,10 @@
         <v>0.26</v>
       </c>
       <c r="H109" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="I109" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="J109" t="n">
         <v>2</v>
@@ -6001,13 +6001,13 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="M109" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="O109" t="n">
         <v>1</v>
@@ -6040,10 +6040,10 @@
         <v>1.45</v>
       </c>
       <c r="H110" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="I110" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -6052,13 +6052,13 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="M110" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="N110" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="O110" t="n">
         <v>1</v>
@@ -6091,10 +6091,10 @@
         <v>1.39</v>
       </c>
       <c r="H111" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="I111" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -6103,13 +6103,13 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="M111" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="N111" t="n">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="O111" t="n">
         <v>2</v>
@@ -6142,10 +6142,10 @@
         <v>0.59</v>
       </c>
       <c r="H112" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -6154,13 +6154,13 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="M112" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="N112" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O112" t="n">
         <v>2</v>
@@ -6193,10 +6193,10 @@
         <v>3.38</v>
       </c>
       <c r="H113" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="I113" t="n">
-        <v>2.27</v>
+        <v>2.39</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -6205,13 +6205,13 @@
         <v>1</v>
       </c>
       <c r="L113" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="M113" t="n">
-        <v>1.11</v>
+        <v>0.99</v>
       </c>
       <c r="N113" t="n">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="O113" t="n">
         <v>5</v>
@@ -6244,10 +6244,10 @@
         <v>0.42</v>
       </c>
       <c r="H114" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="I114" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -6256,13 +6256,13 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="O114" t="n">
         <v>2</v>
@@ -6295,10 +6295,10 @@
         <v>1.02</v>
       </c>
       <c r="H115" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="I115" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -6307,13 +6307,13 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="M115" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="N115" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="O115" t="n">
         <v>3</v>
@@ -6346,10 +6346,10 @@
         <v>0.84</v>
       </c>
       <c r="H116" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="I116" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -6358,13 +6358,13 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="M116" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="N116" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="O116" t="n">
         <v>3</v>
@@ -6397,10 +6397,10 @@
         <v>0.44</v>
       </c>
       <c r="H117" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="I117" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -6409,13 +6409,13 @@
         <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="M117" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="N117" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="O117" t="n">
         <v>4</v>
@@ -6448,10 +6448,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="H118" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="I118" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -6460,13 +6460,13 @@
         <v>1</v>
       </c>
       <c r="L118" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="M118" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="N118" t="n">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -6499,10 +6499,10 @@
         <v>1.61</v>
       </c>
       <c r="H119" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -6511,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="M119" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="N119" t="n">
         <v>0.62</v>
@@ -6550,10 +6550,10 @@
         <v>1.68</v>
       </c>
       <c r="H120" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I120" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -6562,13 +6562,13 @@
         <v>1</v>
       </c>
       <c r="L120" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="M120" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="N120" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="O120" t="n">
         <v>4</v>
@@ -6601,7 +6601,7 @@
         <v>3.23</v>
       </c>
       <c r="H121" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="I121" t="n">
         <v>1.76</v>
@@ -6613,13 +6613,13 @@
         <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M121" t="n">
         <v>1.47</v>
       </c>
       <c r="N121" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="O121" t="n">
         <v>5</v>
@@ -6652,7 +6652,7 @@
         <v>0.4</v>
       </c>
       <c r="H122" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I122" t="n">
         <v>0.4</v>
@@ -6664,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -6703,10 +6703,10 @@
         <v>2.75</v>
       </c>
       <c r="H123" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="I123" t="n">
-        <v>2.83</v>
+        <v>2.88</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -6715,10 +6715,10 @@
         <v>1</v>
       </c>
       <c r="L123" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M123" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="N123" t="n">
         <v>0.21</v>
@@ -6754,10 +6754,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="I124" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -6766,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="M124" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="N124" t="n">
         <v>0.6899999999999999</v>
@@ -6805,10 +6805,10 @@
         <v>3.01</v>
       </c>
       <c r="H125" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="I125" t="n">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -6817,13 +6817,13 @@
         <v>2</v>
       </c>
       <c r="L125" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="M125" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="N125" t="n">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="O125" t="n">
         <v>2</v>
@@ -6856,10 +6856,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H126" t="n">
-        <v>2.13</v>
+        <v>2.21</v>
       </c>
       <c r="I126" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -6868,13 +6868,13 @@
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="M126" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N126" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="O126" t="n">
         <v>2</v>
@@ -6907,7 +6907,7 @@
         <v>0.58</v>
       </c>
       <c r="H127" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="I127" t="n">
         <v>0.5600000000000001</v>
@@ -6919,13 +6919,13 @@
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="M127" t="n">
         <v>0.02</v>
       </c>
       <c r="N127" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -6958,10 +6958,10 @@
         <v>0.88</v>
       </c>
       <c r="H128" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="I128" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -6970,13 +6970,13 @@
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="M128" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="N128" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="O128" t="n">
         <v>2</v>
@@ -7009,10 +7009,10 @@
         <v>0.83</v>
       </c>
       <c r="H129" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I129" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -7021,13 +7021,13 @@
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M129" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="N129" t="n">
         <v>0.53</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0.57</v>
       </c>
       <c r="O129" t="n">
         <v>2</v>
@@ -7060,10 +7060,10 @@
         <v>0.7</v>
       </c>
       <c r="H130" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="I130" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -7072,13 +7072,13 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="M130" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="N130" t="n">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="O130" t="n">
         <v>1</v>
@@ -7111,10 +7111,10 @@
         <v>0.7</v>
       </c>
       <c r="H131" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="I131" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -7123,13 +7123,13 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="M131" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="N131" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="O131" t="n">
         <v>1</v>
@@ -7162,7 +7162,7 @@
         <v>0.44</v>
       </c>
       <c r="H132" t="n">
-        <v>3.34</v>
+        <v>3.32</v>
       </c>
       <c r="I132" t="n">
         <v>0.6</v>
@@ -7174,13 +7174,13 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="M132" t="n">
         <v>0.16</v>
       </c>
       <c r="N132" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="O132" t="n">
         <v>1</v>
@@ -7213,10 +7213,10 @@
         <v>1.34</v>
       </c>
       <c r="H133" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I133" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -7225,10 +7225,10 @@
         <v>1</v>
       </c>
       <c r="L133" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N133" t="n">
         <v>0.17</v>
@@ -7264,7 +7264,7 @@
         <v>0.54</v>
       </c>
       <c r="H134" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="I134" t="n">
         <v>0.45</v>
@@ -7276,13 +7276,13 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="M134" t="n">
         <v>0.09</v>
       </c>
       <c r="N134" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="O134" t="n">
         <v>3</v>
@@ -7315,10 +7315,10 @@
         <v>1.3</v>
       </c>
       <c r="H135" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I135" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -7327,13 +7327,13 @@
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M135" t="n">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="N135" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="O135" t="n">
         <v>1</v>
@@ -7366,10 +7366,10 @@
         <v>2.6</v>
       </c>
       <c r="H136" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>2.82</v>
+        <v>2.89</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -7378,13 +7378,13 @@
         <v>1</v>
       </c>
       <c r="L136" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="M136" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="N136" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="O136" t="n">
         <v>3</v>
@@ -7417,10 +7417,10 @@
         <v>1.41</v>
       </c>
       <c r="H137" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I137" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -7429,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M137" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="N137" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="O137" t="n">
         <v>1</v>
@@ -7468,10 +7468,10 @@
         <v>1.64</v>
       </c>
       <c r="H138" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="I138" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         <v>1</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="M138" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="O138" t="n">
         <v>1</v>
@@ -7519,10 +7519,10 @@
         <v>1.3</v>
       </c>
       <c r="H139" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="I139" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -7531,13 +7531,13 @@
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="M139" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="O139" t="n">
         <v>2</v>
@@ -7570,7 +7570,7 @@
         <v>0.72</v>
       </c>
       <c r="H140" t="n">
-        <v>2.71</v>
+        <v>2.49</v>
       </c>
       <c r="I140" t="n">
         <v>0.96</v>
@@ -7582,13 +7582,13 @@
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="M140" t="n">
         <v>0.24</v>
       </c>
       <c r="N140" t="n">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
       <c r="O140" t="n">
         <v>3</v>
@@ -7621,10 +7621,10 @@
         <v>0.38</v>
       </c>
       <c r="H141" t="n">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="I141" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -7633,13 +7633,13 @@
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="M141" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="O141" t="n">
         <v>4</v>
@@ -7672,7 +7672,7 @@
         <v>0.59</v>
       </c>
       <c r="H142" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="I142" t="n">
         <v>0.57</v>
@@ -7684,13 +7684,13 @@
         <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="M142" t="n">
         <v>0.02</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="O142" t="n">
         <v>0</v>
@@ -7723,7 +7723,7 @@
         <v>0.93</v>
       </c>
       <c r="H143" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="I143" t="n">
         <v>0.59</v>
@@ -7735,13 +7735,13 @@
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="M143" t="n">
         <v>0.34</v>
       </c>
       <c r="N143" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="O143" t="n">
         <v>4</v>
@@ -7774,10 +7774,10 @@
         <v>0.88</v>
       </c>
       <c r="H144" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="I144" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -7786,13 +7786,13 @@
         <v>1</v>
       </c>
       <c r="L144" t="n">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="N144" t="n">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
       <c r="O144" t="n">
         <v>4</v>
@@ -7843,7 +7843,7 @@
         <v>0.29</v>
       </c>
       <c r="N145" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="O145" t="n">
         <v>2</v>
@@ -7876,10 +7876,10 @@
         <v>1.31</v>
       </c>
       <c r="H146" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="I146" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -7888,13 +7888,13 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="M146" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="N146" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="O146" t="n">
         <v>5</v>
@@ -7927,10 +7927,10 @@
         <v>0.29</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="I147" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -7939,13 +7939,13 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="M147" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N147" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="O147" t="n">
         <v>1</v>
@@ -7996,7 +7996,7 @@
         <v>0.22</v>
       </c>
       <c r="N148" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="O148" t="n">
         <v>4</v>
@@ -8029,10 +8029,10 @@
         <v>1.22</v>
       </c>
       <c r="H149" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="I149" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -8041,16 +8041,1036 @@
         <v>0</v>
       </c>
       <c r="L149" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="M149" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N149" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="O149" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>2</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>3</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H166" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J166" t="n">
+        <v>4</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O169" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/leagueStats/leagueStats_base_XGB_full.xlsx
+++ b/leagueStats/leagueStats_base_XGB_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O169"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9073,6 +9073,516 @@
         <v>2</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G170" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I170" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="N173" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leagueStats/leagueStats_base_XGB_full.xlsx
+++ b/leagueStats/leagueStats_base_XGB_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9583,6 +9583,822 @@
         <v>1</v>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="N187" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O188" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>2</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>2</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leagueStats/leagueStats_base_XGB_full.xlsx
+++ b/leagueStats/leagueStats_base_XGB_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O195"/>
+  <dimension ref="A1:O199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10399,6 +10399,210 @@
         <v>1</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>2</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O199" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
